--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\мотели\zayavki_bot_final_with_inline_buttons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5AEDC-22C5-4D64-9917-58E16B0CA45E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B898F12-87A7-42C6-B7E1-F7991ABE1ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,28 +1060,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
@@ -1090,10 +1090,10 @@
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
@@ -1102,10 +1102,10 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\мотели\zayavki_bot_final_with_inline_buttons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B898F12-87A7-42C6-B7E1-F7991ABE1ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C69A8-AED8-4CE2-B2EB-2CFEBE1DA4FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,28 +1060,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
@@ -1090,10 +1090,10 @@
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
@@ -1102,10 +1102,10 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\мотели\zayavki_bot_final_with_inline_buttons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C69A8-AED8-4CE2-B2EB-2CFEBE1DA4FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BF533-0ECB-456C-84B5-CD18667D769F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Ед. изм.</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Составил</t>
   </si>
   <si>
-    <t>Имя пользователя</t>
-  </si>
-  <si>
     <t>Telegram</t>
   </si>
   <si>
@@ -146,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +187,13 @@
       <name val="RF Dewi"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="RF Dewi"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -355,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -446,6 +450,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,10 +1048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1083,29 +1096,25 @@
       </c>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="F5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
-      <c r="F6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="24"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1127,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
@@ -1204,6 +1213,11 @@
         <v>22</v>
       </c>
       <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="33" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
